--- a/src/assets/formats/archivo_carga_cupos.xlsx
+++ b/src/assets/formats/archivo_carga_cupos.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMTL\Desktop\Proyectos GIT\matriculacion-client\src\assets\formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Desktop\Proyectos Yavirac\cliente-matriculacion\src\assets\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A7776-1E93-4EA0-8CD3-275C723E05D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10F01F-29C6-400A-BE52-995703213E18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="26">
   <si>
     <t>cedula_estudiante</t>
   </si>
@@ -125,7 +124,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +143,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -157,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -165,6 +170,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,13 +475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,16 +534,16 @@
       <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="3" t="s">

--- a/src/assets/formats/archivo_carga_cupos.xlsx
+++ b/src/assets/formats/archivo_carga_cupos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Desktop\Proyectos Yavirac\cliente-matriculacion\src\assets\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10F01F-29C6-400A-BE52-995703213E18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E3A12F-7774-48AE-BF74-7ED54D4E33A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,481 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cesar Mauricio Tamayo Lopez</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{486A57AA-FB91-436C-86E0-C82003CBF513}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1 cedula
+2 pasaporte</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A8198F61-82DF-4368-B17F-F83ACDCAB084}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sin espacios ni guion medio
+ej. 1724909443</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FA95B04B-1E3E-45BF-9D10-855EB87A0D53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+colocar el numero 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{FBDC4B07-2C17-4192-912B-7FF7C897E330}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+colocar el numero 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{4ADDAA32-1C57-47F0-BD82-0B4A034BCAC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+colocar el numero 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{EB39DDF8-AE99-459C-9760-794F2FE430E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+colocar el numero 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{7CCDDCF4-4011-4948-9615-3D5B47187C01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1 si
+2 no</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{19C8B853-33CD-445F-B33E-A93A8AF7FE9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1 si
+2 no</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{9E4596B8-9BDA-43FC-9B3F-3EE756E87B46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+es opcional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{5B51B1B1-CE7B-405E-8DB2-42A739B537ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MATUTINA
+VESPERTINA
+NOCTURNA
+INTENSIVA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{94618369-175E-4B81-9722-BCF5D076BE40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MATUTINA
+VESPERTINA
+NOCTURNA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{AFD76E89-C2B7-4032-A80A-F2F3B194E398}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A
+B
+C
+D
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{AF970171-1BAA-479D-91B2-1220A63296FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ORDINARIA
+EXTRAORDINARIA
+ESPECIAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{BA055A16-AAAD-4801-882D-C6EE819D7B71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PRIMERA
+SEGUNDA
+TERCERA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{F3C6C926-9849-4BD6-9318-651AF8774664}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MATUTINA
+VESPERTINA
+NOCTURNA
+INTENSIVA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2D25DB8B-9CC0-4F02-8DE6-11FE60522BDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A
+B
+C
+D
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{DEBC5524-E2F3-4B86-9BD5-8E7758AB1F0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ORDINARIA
+EXTRAORDINARIA
+ESPECIAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{71F81FC6-B6C6-4E57-A36F-B24648B768C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1
+2
+3
+4
+5
+6</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>cedula_estudiante</t>
   </si>
@@ -104,7 +577,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -122,6 +595,19 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -474,14 +960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,9 +1075,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>